--- a/biology/Médecine/Charles_Jacmart/Charles_Jacmart.xlsx
+++ b/biology/Médecine/Charles_Jacmart/Charles_Jacmart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Jacmart, né à Fumay en 1773 et décédé à Saint-Josse-ten-Noode le 11 octobre 1849 (enterré au cimetière de Laeken), est un médecin belge, professeur puis recteur magnifique de l'université d'État de Louvain[1], puis professeur à l'Université libre de Bruxelles (1838-1845).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Jacmart, né à Fumay en 1773 et décédé à Saint-Josse-ten-Noode le 11 octobre 1849 (enterré au cimetière de Laeken), est un médecin belge, professeur puis recteur magnifique de l'université d'État de Louvain, puis professeur à l'Université libre de Bruxelles (1838-1845).
 Il avait épousé à Paris le 22 mars 1813, Stéphanie Bauchau, née à Namur en 1788 et décédée à Bruxelles le 26 décembre 1863.
 Était attaché aux ambulances lors de la bataille d'Eylau en 1807.
 </t>
@@ -513,7 +525,9 @@
           <t>Sa formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudia à l'ancienne université de Louvain où il devint licencié ès Arts le 23 août 1791 et licencié en médecine le 4 juillet 1794. Il devint encore licencié ès sciences et docteur en médecine de l'Université de Paris en 1811.
 </t>
@@ -544,11 +558,13 @@
           <t>Sa carrière professorale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Attiré par l'enseignement, il fit une carrière académique et devint successivement :
 1798 à 1803 : professeur d'histoire naturelle à l'École centrale de Sambre-et-Meuse à Namur.
-1803 à 1813 : professeur de mathématiques supérieures à l'université de Mayence[2].
+1803 à 1813 : professeur de mathématiques supérieures à l'université de Mayence.
 1816: par arrêté royal du 23 septembre 1817, il fut nommé professeur à la faculté de médecine de l'université d'État de Louvain. Il y donna les cours de matière médicale, médecine légale, diététique, clinique, thérapeutique générale et spéciale.
 1819 à 1820, il fut secrétaire de cette université.
 1822 à 1823, de 1830 à 1831 et de 1831 à 1832, il en fut recteur magnifique.
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de plusieurs ouvrages scientifiques.
 </t>
